--- a/オートスモーキング仕様書/オートスモーキング仕様書.xlsx
+++ b/オートスモーキング仕様書/オートスモーキング仕様書.xlsx
@@ -21,17 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>ゲームシステム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>グラフィック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サウンド</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -411,12 +407,29 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終編集日</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +572,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -632,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -643,6 +664,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -665,26 +695,21 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2383,118 +2408,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
+    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13"/>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
-      <c r="C12" s="22" t="s">
-        <v>63</v>
+      <c r="C12" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
-      <c r="C13" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="C13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
-      <c r="C14" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
-      <c r="C15" s="22" t="s">
-        <v>65</v>
+      <c r="C15" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
-      <c r="C16" s="22" t="s">
-        <v>67</v>
+      <c r="C16" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="24">
+        <v>43920</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2526,15 +2560,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
-        <v>57</v>
+    <row r="1" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2565,18 +2599,18 @@
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>56</v>
+    <row r="1" spans="1:14" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -2584,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -2592,19 +2626,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -2612,7 +2646,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -2620,7 +2654,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -2628,19 +2662,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -2648,13 +2682,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -2662,34 +2696,34 @@
         <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -2697,34 +2731,34 @@
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -2732,34 +2766,34 @@
         <v>9</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
